--- a/C# Final/ExcelSourceProject/ExcelSource.xlsx
+++ b/C# Final/ExcelSourceProject/ExcelSource.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Tech Academy\TA-C-Sharp-Coding\C# Final\ExcelSourceProject\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{C10F64F7-C0BB-40DC-A4A6-559F19261C2E}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6F2C43BA-3F96-42D6-AD24-16BC615A2ECE}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{D594F18D-0267-4B33-9CEA-AF6FAE81349D}"/>
   </bookViews>
@@ -428,9 +428,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{01D2F6CD-A82D-41C5-8C7F-7FBC1F272961}">
   <dimension ref="A1:C6"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
-    </sheetView>
+    <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
